--- a/Data/EC/NIT-9000425812.xlsx
+++ b/Data/EC/NIT-9000425812.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{891C973C-5D89-4E40-A14B-9EC3617999BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C760578-A6B4-43B1-B3F4-1C3F7B2F7533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB5F7DB5-7756-4A1B-BD59-89DC9BE429EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{68D3547E-5BFD-40D4-AEA5-D3EE3635DD3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="133">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,108 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73572334</t>
+  </si>
+  <si>
+    <t>MARCELO ALEXANDER VARGAS BARRERA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>73187225</t>
+  </si>
+  <si>
+    <t>YEHISSON BOLIVAR WATTS</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>1143341348</t>
+  </si>
+  <si>
+    <t>WENDY JOHANNA CARBALLO MARMOL</t>
+  </si>
+  <si>
+    <t>1050968656</t>
+  </si>
+  <si>
+    <t>CRISTOBAL DAVID CASTILLA RUIZ</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>22799836</t>
+  </si>
+  <si>
+    <t>CAROLINA CONSUEGRA CARMONA</t>
+  </si>
+  <si>
+    <t>1049828585</t>
+  </si>
+  <si>
+    <t>INOCENCIO PARRA BIBANCO</t>
+  </si>
+  <si>
     <t>1047487417</t>
   </si>
   <si>
@@ -74,6 +176,12 @@
     <t>1608</t>
   </si>
   <si>
+    <t>1143353042</t>
+  </si>
+  <si>
+    <t>YESSICA DEL CARMEN FAJARDO RODRIGUEZ</t>
+  </si>
+  <si>
     <t>42129436</t>
   </si>
   <si>
@@ -83,64 +191,130 @@
     <t>1704</t>
   </si>
   <si>
+    <t>1047457661</t>
+  </si>
+  <si>
+    <t>CANDELARIA PAOLA CARBALLO GOMEZ</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>1050963344</t>
+  </si>
+  <si>
+    <t>KARINA PAOLA MONTT DORIA</t>
+  </si>
+  <si>
+    <t>1047500236</t>
+  </si>
+  <si>
+    <t>NEDER LUIS CUADRADO MARTINEZ</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>1047485718</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS VENTURA MARTINEZ</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>1143408170</t>
+  </si>
+  <si>
+    <t>KATHY LORENA PARRA LEMUS</t>
+  </si>
+  <si>
     <t>1143353093</t>
   </si>
   <si>
     <t>MARIA TERESA VASQUEZ AMARIS</t>
   </si>
   <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
     <t>1801</t>
   </si>
   <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1050968656</t>
-  </si>
-  <si>
-    <t>CRISTOBAL DAVID CASTILLA RUIZ</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
+    <t>1143371837</t>
+  </si>
+  <si>
+    <t>CHRISTIAN CAMILO RODRIGUEZ CASTELLON</t>
+  </si>
+  <si>
+    <t>1044936486</t>
+  </si>
+  <si>
+    <t>YORLAN ENRIQUE CHIQUILLO SALAS</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>1002058942</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE CASTILLA MORALES</t>
+  </si>
+  <si>
+    <t>1098704671</t>
+  </si>
+  <si>
+    <t>ANDRES FELIPE OSORIO CAMARGO</t>
+  </si>
+  <si>
+    <t>1007313010</t>
+  </si>
+  <si>
+    <t>ALIX CAROLINA DE LA ROSA MENDOZA</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
   </si>
   <si>
     <t>1019114344</t>
@@ -149,43 +323,61 @@
     <t>LADY JHOANA LEITON PEÑA</t>
   </si>
   <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
     <t>2202</t>
   </si>
   <si>
-    <t>1007313010</t>
-  </si>
-  <si>
-    <t>ALIX CAROLINA DE LA ROSA MENDOZA</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>73187225</t>
-  </si>
-  <si>
-    <t>YEHISSON BOLIVAR WATTS</t>
-  </si>
-  <si>
-    <t>2211</t>
+    <t>91537731</t>
+  </si>
+  <si>
+    <t>ELBIS ACUÑA CACERES</t>
+  </si>
+  <si>
+    <t>1007130603</t>
+  </si>
+  <si>
+    <t>JORSSER LUIS CASTRO MORALES</t>
   </si>
   <si>
     <t>1038407499</t>
@@ -194,181 +386,22 @@
     <t>JUAN DAVID NARANJO RAMIREZ</t>
   </si>
   <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
     <t>1002412655</t>
   </si>
   <si>
     <t>LUIS DAVID PITALUA DE ARCO</t>
   </si>
   <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>1047457661</t>
-  </si>
-  <si>
-    <t>CANDELARIA PAOLA CARBALLO GOMEZ</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>1047485718</t>
-  </si>
-  <si>
-    <t>ROBERTO CARLOS VENTURA MARTINEZ</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>1044936486</t>
-  </si>
-  <si>
-    <t>YORLAN ENRIQUE CHIQUILLO SALAS</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
     <t>1143414569</t>
   </si>
   <si>
     <t>EDGAR DE JESUS BAYUELO FERIAS</t>
   </si>
   <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>1007130603</t>
-  </si>
-  <si>
-    <t>JORSSER LUIS CASTRO MORALES</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>1143371837</t>
-  </si>
-  <si>
-    <t>CHRISTIAN CAMILO RODRIGUEZ CASTELLON</t>
-  </si>
-  <si>
-    <t>1050963344</t>
-  </si>
-  <si>
-    <t>KARINA PAOLA MONTT DORIA</t>
-  </si>
-  <si>
-    <t>22799836</t>
-  </si>
-  <si>
-    <t>CAROLINA CONSUEGRA CARMONA</t>
-  </si>
-  <si>
-    <t>1143353042</t>
-  </si>
-  <si>
-    <t>YESSICA DEL CARMEN FAJARDO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1002058942</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE CASTILLA MORALES</t>
-  </si>
-  <si>
-    <t>1143341348</t>
-  </si>
-  <si>
-    <t>WENDY JOHANNA CARBALLO MARMOL</t>
-  </si>
-  <si>
-    <t>1143408170</t>
-  </si>
-  <si>
-    <t>KATHY LORENA PARRA LEMUS</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
     <t>1005649919</t>
   </si>
   <si>
     <t>JULIAN DAVID CASTILLA GAMARRA</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -782,7 +815,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C118B662-161C-6BC6-AA5F-B0755AA01067}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378FAF6E-2E39-D254-CBA3-05874B809869}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1133,8 +1166,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9A0535-A9CD-4067-AEA2-1FAEE934BA1E}">
-  <dimension ref="B2:J206"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B4D8E-7CC0-4EB6-BB04-A6FD8EE4AD88}">
+  <dimension ref="B2:J277"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1158,7 +1191,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1203,7 +1236,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1235,12 +1268,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>18149039</v>
+        <v>22081838</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1251,17 +1284,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C13" s="5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F13" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1288,13 +1321,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1311,10 +1344,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>19200</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>900000</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1325,19 +1358,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>200000</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>5000000</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1348,19 +1381,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>19068</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1371,19 +1404,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1394,19 +1427,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F20" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1417,19 +1450,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>20833</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>924560</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1440,19 +1473,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1463,19 +1496,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>1042</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>924560</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1486,19 +1519,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1509,19 +1542,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1532,19 +1565,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1555,19 +1588,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1578,19 +1611,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1601,19 +1634,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1624,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1647,19 +1680,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G31" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1670,19 +1703,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1693,19 +1726,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1716,19 +1749,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1739,19 +1772,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>57203</v>
+        <v>14667</v>
       </c>
       <c r="G35" s="18">
-        <v>1430072</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1762,19 +1795,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>135744</v>
       </c>
       <c r="G36" s="18">
-        <v>3000000</v>
+        <v>3393600</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1785,19 +1818,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F37" s="18">
-        <v>28000</v>
+        <v>1042</v>
       </c>
       <c r="G37" s="18">
-        <v>1740000</v>
+        <v>924560</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1814,13 +1847,13 @@
         <v>36</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F38" s="18">
-        <v>120000</v>
+        <v>20833</v>
       </c>
       <c r="G38" s="18">
-        <v>3000000</v>
+        <v>924560</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1831,19 +1864,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F39" s="18">
-        <v>60000</v>
+        <v>225812</v>
       </c>
       <c r="G39" s="18">
-        <v>1740000</v>
+        <v>1035000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1854,19 +1887,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F40" s="18">
-        <v>120000</v>
+        <v>225812</v>
       </c>
       <c r="G40" s="18">
-        <v>3000000</v>
+        <v>1035000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1877,19 +1910,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F41" s="18">
-        <v>120000</v>
+        <v>225812</v>
       </c>
       <c r="G41" s="18">
-        <v>3000000</v>
+        <v>1035000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1900,19 +1933,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F42" s="18">
-        <v>120000</v>
+        <v>225812</v>
       </c>
       <c r="G42" s="18">
-        <v>3000000</v>
+        <v>1035000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1923,19 +1956,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F43" s="18">
-        <v>120000</v>
+        <v>225812</v>
       </c>
       <c r="G43" s="18">
-        <v>3000000</v>
+        <v>1035000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1946,19 +1979,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F44" s="18">
-        <v>120000</v>
+        <v>225812</v>
       </c>
       <c r="G44" s="18">
-        <v>3000000</v>
+        <v>1035000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1969,19 +2002,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F45" s="18">
-        <v>14667</v>
+        <v>225812</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>1035000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1992,19 +2025,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F46" s="18">
-        <v>120000</v>
+        <v>225812</v>
       </c>
       <c r="G46" s="18">
-        <v>3000000</v>
+        <v>1035000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2015,19 +2048,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F47" s="18">
-        <v>300000</v>
+        <v>225812</v>
       </c>
       <c r="G47" s="18">
-        <v>7500000</v>
+        <v>1035000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2038,19 +2071,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F48" s="18">
-        <v>120000</v>
+        <v>225812</v>
       </c>
       <c r="G48" s="18">
-        <v>3000000</v>
+        <v>1035000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2061,19 +2094,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F49" s="18">
-        <v>300000</v>
+        <v>225812</v>
       </c>
       <c r="G49" s="18">
-        <v>7500000</v>
+        <v>1035000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2084,19 +2117,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F50" s="18">
-        <v>120000</v>
+        <v>225812</v>
       </c>
       <c r="G50" s="18">
-        <v>3000000</v>
+        <v>1035000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2107,19 +2140,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F51" s="18">
-        <v>1547</v>
+        <v>225812</v>
       </c>
       <c r="G51" s="18">
-        <v>1160000</v>
+        <v>1035000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2130,19 +2163,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F52" s="18">
-        <v>46400</v>
+        <v>225812</v>
       </c>
       <c r="G52" s="18">
-        <v>1160000</v>
+        <v>1035000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2153,19 +2186,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F53" s="18">
-        <v>120000</v>
+        <v>225812</v>
       </c>
       <c r="G53" s="18">
-        <v>3000000</v>
+        <v>1035000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2176,19 +2209,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F54" s="18">
-        <v>120000</v>
+        <v>225812</v>
       </c>
       <c r="G54" s="18">
-        <v>3000000</v>
+        <v>1035000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2199,19 +2232,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F55" s="18">
-        <v>46400</v>
+        <v>225812</v>
       </c>
       <c r="G55" s="18">
-        <v>1160000</v>
+        <v>1035000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2222,19 +2255,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
-        <v>46400</v>
+        <v>225812</v>
       </c>
       <c r="G56" s="18">
-        <v>1160000</v>
+        <v>1035000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2245,19 +2278,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F57" s="18">
-        <v>120000</v>
+        <v>225812</v>
       </c>
       <c r="G57" s="18">
-        <v>3000000</v>
+        <v>1035000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2268,19 +2301,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F58" s="18">
-        <v>339360</v>
+        <v>52000</v>
       </c>
       <c r="G58" s="18">
-        <v>7500000</v>
+        <v>689455</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2291,19 +2324,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F59" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G59" s="18">
-        <v>1160000</v>
+        <v>689455</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2314,19 +2347,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="F60" s="18">
-        <v>120000</v>
+        <v>52000</v>
       </c>
       <c r="G60" s="18">
-        <v>3000000</v>
+        <v>689455</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2337,19 +2370,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F61" s="18">
-        <v>120000</v>
+        <v>52000</v>
       </c>
       <c r="G61" s="18">
-        <v>3000000</v>
+        <v>689455</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2360,19 +2393,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F62" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G62" s="18">
-        <v>1160000</v>
+        <v>689455</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2383,19 +2416,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F63" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G63" s="18">
-        <v>1160000</v>
+        <v>689455</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2406,19 +2439,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F64" s="18">
-        <v>5447</v>
+        <v>52000</v>
       </c>
       <c r="G64" s="18">
-        <v>2042760</v>
+        <v>689455</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2429,19 +2462,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F65" s="18">
-        <v>120000</v>
+        <v>52000</v>
       </c>
       <c r="G65" s="18">
-        <v>3000000</v>
+        <v>689455</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2452,19 +2485,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="F66" s="18">
-        <v>120000</v>
+        <v>52000</v>
       </c>
       <c r="G66" s="18">
-        <v>3000000</v>
+        <v>689455</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2475,19 +2508,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F67" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G67" s="18">
-        <v>1160000</v>
+        <v>689455</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2498,19 +2531,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="F68" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G68" s="18">
-        <v>1160000</v>
+        <v>689455</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2521,19 +2554,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F69" s="18">
-        <v>9280</v>
+        <v>52000</v>
       </c>
       <c r="G69" s="18">
-        <v>1160000</v>
+        <v>689455</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2544,19 +2577,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F70" s="18">
-        <v>120000</v>
+        <v>52000</v>
       </c>
       <c r="G70" s="18">
-        <v>3000000</v>
+        <v>689455</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2567,19 +2600,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F71" s="18">
-        <v>46400</v>
+        <v>19200</v>
       </c>
       <c r="G71" s="18">
-        <v>1160000</v>
+        <v>900000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2590,19 +2623,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F72" s="18">
-        <v>52278</v>
+        <v>97440</v>
       </c>
       <c r="G72" s="18">
-        <v>1508000</v>
+        <v>2436000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2613,19 +2646,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F73" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G73" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2636,19 +2669,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F74" s="18">
-        <v>46400</v>
+        <v>5447</v>
       </c>
       <c r="G74" s="18">
-        <v>1160000</v>
+        <v>2042760</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2659,19 +2692,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F75" s="18">
-        <v>120000</v>
+        <v>69600</v>
       </c>
       <c r="G75" s="18">
-        <v>3000000</v>
+        <v>1740000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2682,19 +2715,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F76" s="18">
-        <v>46400</v>
+        <v>72000</v>
       </c>
       <c r="G76" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2705,19 +2738,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F77" s="18">
-        <v>120000</v>
+        <v>9280</v>
       </c>
       <c r="G77" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2728,19 +2761,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F78" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G78" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2751,19 +2784,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="F79" s="18">
-        <v>60320</v>
+        <v>120000</v>
       </c>
       <c r="G79" s="18">
-        <v>1508000</v>
+        <v>3000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2774,13 +2807,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="F80" s="18">
         <v>120000</v>
@@ -2797,19 +2830,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F81" s="18">
-        <v>81716</v>
+        <v>120000</v>
       </c>
       <c r="G81" s="18">
-        <v>2042899</v>
+        <v>3000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2820,19 +2853,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F82" s="18">
-        <v>69600</v>
+        <v>120000</v>
       </c>
       <c r="G82" s="18">
-        <v>1740000</v>
+        <v>3000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2843,19 +2876,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F83" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G83" s="18">
-        <v>5645304</v>
+        <v>3000000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2866,19 +2899,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="F84" s="18">
-        <v>97440</v>
+        <v>120000</v>
       </c>
       <c r="G84" s="18">
-        <v>2436000</v>
+        <v>3000000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2889,19 +2922,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="F85" s="18">
-        <v>339360</v>
+        <v>120000</v>
       </c>
       <c r="G85" s="18">
-        <v>7500000</v>
+        <v>3000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2912,19 +2945,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="F86" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G86" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2935,19 +2968,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="F87" s="18">
-        <v>135744</v>
+        <v>120000</v>
       </c>
       <c r="G87" s="18">
-        <v>3393600</v>
+        <v>3000000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2958,19 +2991,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="F88" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G88" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2981,13 +3014,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="F89" s="18">
         <v>120000</v>
@@ -3004,19 +3037,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="F90" s="18">
-        <v>69600</v>
+        <v>120000</v>
       </c>
       <c r="G90" s="18">
-        <v>1740000</v>
+        <v>3000000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3027,19 +3060,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="F91" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G91" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3050,19 +3083,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="F92" s="18">
-        <v>60320</v>
+        <v>120000</v>
       </c>
       <c r="G92" s="18">
-        <v>1508000</v>
+        <v>3000000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3073,19 +3106,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="F93" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G93" s="18">
-        <v>5645304</v>
+        <v>3000000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3096,13 +3129,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="F94" s="18">
         <v>120000</v>
@@ -3119,19 +3152,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="F95" s="18">
-        <v>81716</v>
+        <v>120000</v>
       </c>
       <c r="G95" s="18">
-        <v>2042899</v>
+        <v>3000000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3142,19 +3175,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="F96" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G96" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3165,19 +3198,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F97" s="18">
-        <v>120000</v>
+        <v>57203</v>
       </c>
       <c r="G97" s="18">
-        <v>3000000</v>
+        <v>1430072</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3188,19 +3221,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F98" s="18">
-        <v>339360</v>
+        <v>57203</v>
       </c>
       <c r="G98" s="18">
-        <v>7500000</v>
+        <v>1430072</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3211,19 +3244,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F99" s="18">
-        <v>20800</v>
+        <v>57203</v>
       </c>
       <c r="G99" s="18">
-        <v>1300000</v>
+        <v>1430072</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3234,19 +3267,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F100" s="18">
-        <v>120000</v>
+        <v>57203</v>
       </c>
       <c r="G100" s="18">
-        <v>3000000</v>
+        <v>1430072</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3257,19 +3290,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F101" s="18">
-        <v>120000</v>
+        <v>57203</v>
       </c>
       <c r="G101" s="18">
-        <v>3000000</v>
+        <v>1430072</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3280,19 +3313,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F102" s="18">
-        <v>60320</v>
+        <v>57203</v>
       </c>
       <c r="G102" s="18">
-        <v>1508000</v>
+        <v>1430072</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3303,19 +3336,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F103" s="18">
-        <v>339360</v>
+        <v>57203</v>
       </c>
       <c r="G103" s="18">
-        <v>7500000</v>
+        <v>1430072</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3326,19 +3359,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F104" s="18">
-        <v>225812</v>
+        <v>57203</v>
       </c>
       <c r="G104" s="18">
-        <v>5645304</v>
+        <v>1430072</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3349,19 +3382,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F105" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G105" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3372,19 +3405,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F106" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G106" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3395,19 +3428,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F107" s="18">
-        <v>52000</v>
+        <v>57203</v>
       </c>
       <c r="G107" s="18">
-        <v>1300000</v>
+        <v>1430072</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3418,19 +3451,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F108" s="18">
-        <v>120000</v>
+        <v>57203</v>
       </c>
       <c r="G108" s="18">
-        <v>3000000</v>
+        <v>1430072</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3441,19 +3474,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="F109" s="18">
-        <v>225812</v>
+        <v>57203</v>
       </c>
       <c r="G109" s="18">
-        <v>5645304</v>
+        <v>1430072</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3464,19 +3497,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="F110" s="18">
-        <v>60320</v>
+        <v>57203</v>
       </c>
       <c r="G110" s="18">
-        <v>1508000</v>
+        <v>1430072</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3487,19 +3520,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F111" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G111" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3510,19 +3543,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F112" s="18">
-        <v>46400</v>
+        <v>19068</v>
       </c>
       <c r="G112" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3533,19 +3566,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="F113" s="18">
-        <v>120000</v>
+        <v>81716</v>
       </c>
       <c r="G113" s="18">
-        <v>3000000</v>
+        <v>2042899</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3556,19 +3589,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="F114" s="18">
-        <v>52000</v>
+        <v>81716</v>
       </c>
       <c r="G114" s="18">
-        <v>1300000</v>
+        <v>2042899</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3579,16 +3612,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F115" s="18">
-        <v>60320</v>
+        <v>52278</v>
       </c>
       <c r="G115" s="18">
         <v>1508000</v>
@@ -3602,19 +3635,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F116" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G116" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3625,19 +3658,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F117" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G117" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3648,19 +3681,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="F118" s="18">
-        <v>225812</v>
+        <v>46400</v>
       </c>
       <c r="G118" s="18">
-        <v>5645304</v>
+        <v>1160000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3671,13 +3704,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D119" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D119" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="E119" s="16" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="F119" s="18">
         <v>46400</v>
@@ -3694,19 +3727,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F120" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G120" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3717,13 +3750,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="F121" s="18">
         <v>46400</v>
@@ -3740,19 +3773,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="F122" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G122" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3763,19 +3796,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="F123" s="18">
-        <v>60320</v>
+        <v>46400</v>
       </c>
       <c r="G123" s="18">
-        <v>1508000</v>
+        <v>1160000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3786,19 +3819,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F124" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G124" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3809,13 +3842,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="F125" s="18">
         <v>46400</v>
@@ -3832,19 +3865,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F126" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G126" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3855,13 +3888,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D127" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D127" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="E127" s="16" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="F127" s="18">
         <v>46400</v>
@@ -3878,19 +3911,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="F128" s="18">
-        <v>225812</v>
+        <v>46400</v>
       </c>
       <c r="G128" s="18">
-        <v>5645304</v>
+        <v>1160000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3901,19 +3934,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="F129" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G129" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3924,13 +3957,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="F130" s="18">
         <v>46400</v>
@@ -3947,13 +3980,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D131" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D131" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="E131" s="16" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="F131" s="18">
         <v>46400</v>
@@ -3970,19 +4003,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="F132" s="18">
-        <v>225812</v>
+        <v>46400</v>
       </c>
       <c r="G132" s="18">
-        <v>5645304</v>
+        <v>1160000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3993,19 +4026,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F133" s="18">
-        <v>60320</v>
+        <v>46400</v>
       </c>
       <c r="G133" s="18">
-        <v>1508000</v>
+        <v>1160000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4016,19 +4049,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="F134" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G134" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4039,19 +4072,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="F135" s="18">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G135" s="18">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4062,19 +4095,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F136" s="18">
-        <v>225812</v>
+        <v>69600</v>
       </c>
       <c r="G136" s="18">
-        <v>5645304</v>
+        <v>1740000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4085,19 +4118,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D137" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D137" s="17" t="s">
+      <c r="E137" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E137" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="F137" s="18">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="G137" s="18">
-        <v>3000000</v>
+        <v>1740000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4108,19 +4141,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F138" s="18">
-        <v>46400</v>
+        <v>28000</v>
       </c>
       <c r="G138" s="18">
-        <v>1160000</v>
+        <v>1740000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4131,19 +4164,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F139" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G139" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4154,19 +4187,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F140" s="18">
-        <v>60320</v>
+        <v>120000</v>
       </c>
       <c r="G140" s="18">
-        <v>1508000</v>
+        <v>3000000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4177,13 +4210,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="F141" s="18">
         <v>120000</v>
@@ -4200,19 +4233,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="F142" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G142" s="18">
-        <v>5645304</v>
+        <v>3000000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4223,19 +4256,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="F143" s="18">
-        <v>60320</v>
+        <v>120000</v>
       </c>
       <c r="G143" s="18">
-        <v>1508000</v>
+        <v>3000000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4246,19 +4279,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="F144" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G144" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4269,19 +4302,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F145" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G145" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4292,13 +4325,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="F146" s="18">
         <v>120000</v>
@@ -4315,19 +4348,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="F147" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G147" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4338,13 +4371,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="F148" s="18">
         <v>120000</v>
@@ -4361,19 +4394,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F149" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G149" s="18">
-        <v>5645304</v>
+        <v>3000000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4384,19 +4417,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="F150" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G150" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4407,19 +4440,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="F151" s="18">
-        <v>60320</v>
+        <v>120000</v>
       </c>
       <c r="G151" s="18">
-        <v>1508000</v>
+        <v>3000000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4430,13 +4463,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="F152" s="18">
         <v>120000</v>
@@ -4453,13 +4486,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="F153" s="18">
         <v>120000</v>
@@ -4476,19 +4509,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="F154" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G154" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4499,19 +4532,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="F155" s="18">
-        <v>60320</v>
+        <v>120000</v>
       </c>
       <c r="G155" s="18">
-        <v>1508000</v>
+        <v>3000000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4522,13 +4555,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="F156" s="18">
         <v>120000</v>
@@ -4545,19 +4578,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="F157" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G157" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4568,19 +4601,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F158" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G158" s="18">
-        <v>5645304</v>
+        <v>3000000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4591,19 +4624,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F159" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G159" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4614,13 +4647,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F160" s="18">
         <v>120000</v>
@@ -4637,19 +4670,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="F161" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G161" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4660,19 +4693,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F162" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G162" s="18">
-        <v>5645304</v>
+        <v>3000000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4683,19 +4716,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="F163" s="18">
-        <v>60320</v>
+        <v>120000</v>
       </c>
       <c r="G163" s="18">
-        <v>1508000</v>
+        <v>3000000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4706,13 +4739,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F164" s="18">
         <v>120000</v>
@@ -4729,19 +4762,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F165" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G165" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4752,13 +4785,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F166" s="18">
         <v>120000</v>
@@ -4775,13 +4808,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F167" s="18">
         <v>120000</v>
@@ -4798,19 +4831,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F168" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G168" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4821,19 +4854,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F169" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G169" s="18">
-        <v>5645304</v>
+        <v>3000000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4844,19 +4877,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F170" s="18">
-        <v>60320</v>
+        <v>120000</v>
       </c>
       <c r="G170" s="18">
-        <v>1508000</v>
+        <v>3000000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4867,13 +4900,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F171" s="18">
         <v>120000</v>
@@ -4890,19 +4923,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="F172" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G172" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4913,19 +4946,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F173" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G173" s="18">
-        <v>5645304</v>
+        <v>3000000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4936,19 +4969,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>106</v>
       </c>
       <c r="F174" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G174" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4959,13 +4992,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F175" s="18">
         <v>120000</v>
@@ -4982,19 +5015,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F176" s="18">
-        <v>60320</v>
+        <v>120000</v>
       </c>
       <c r="G176" s="18">
-        <v>1508000</v>
+        <v>3000000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5005,19 +5038,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F177" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G177" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5028,16 +5061,16 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F178" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G178" s="18">
         <v>3000000</v>
@@ -5051,19 +5084,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F179" s="18">
-        <v>60320</v>
+        <v>13867</v>
       </c>
       <c r="G179" s="18">
-        <v>1508000</v>
+        <v>1397901</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5074,19 +5107,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="F180" s="18">
-        <v>120000</v>
+        <v>52000</v>
       </c>
       <c r="G180" s="18">
-        <v>3000000</v>
+        <v>1397901</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5097,19 +5130,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="F181" s="18">
-        <v>225812</v>
+        <v>52000</v>
       </c>
       <c r="G181" s="18">
-        <v>5645304</v>
+        <v>1397901</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5120,19 +5153,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="F182" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G182" s="18">
-        <v>1160000</v>
+        <v>1397901</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5143,19 +5176,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="F183" s="18">
-        <v>60320</v>
+        <v>52000</v>
       </c>
       <c r="G183" s="18">
-        <v>1508000</v>
+        <v>1397901</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5166,19 +5199,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="F184" s="18">
-        <v>120000</v>
+        <v>52000</v>
       </c>
       <c r="G184" s="18">
-        <v>3000000</v>
+        <v>1397901</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5189,19 +5222,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="F185" s="18">
-        <v>120000</v>
+        <v>52000</v>
       </c>
       <c r="G185" s="18">
-        <v>3000000</v>
+        <v>1397901</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5212,19 +5245,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="F186" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G186" s="18">
-        <v>1160000</v>
+        <v>1397901</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5235,19 +5268,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="F187" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G187" s="18">
-        <v>1160000</v>
+        <v>1397901</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5258,19 +5291,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F188" s="18">
-        <v>225812</v>
+        <v>52000</v>
       </c>
       <c r="G188" s="18">
-        <v>5645304</v>
+        <v>1397901</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5281,19 +5314,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="F189" s="18">
-        <v>225812</v>
+        <v>52000</v>
       </c>
       <c r="G189" s="18">
-        <v>5645304</v>
+        <v>1397901</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5304,19 +5337,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="F190" s="18">
-        <v>60320</v>
+        <v>52000</v>
       </c>
       <c r="G190" s="18">
-        <v>1508000</v>
+        <v>1397901</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5327,19 +5360,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="F191" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G191" s="18">
-        <v>1160000</v>
+        <v>1397901</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5350,19 +5383,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="F192" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G192" s="18">
-        <v>1160000</v>
+        <v>1397901</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5373,19 +5406,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="F193" s="18">
-        <v>120000</v>
+        <v>52000</v>
       </c>
       <c r="G193" s="18">
-        <v>3000000</v>
+        <v>1397901</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5396,19 +5429,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="F194" s="18">
-        <v>120000</v>
+        <v>60320</v>
       </c>
       <c r="G194" s="18">
-        <v>3000000</v>
+        <v>1508000</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5419,19 +5452,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="F195" s="18">
-        <v>120000</v>
+        <v>60320</v>
       </c>
       <c r="G195" s="18">
-        <v>3000000</v>
+        <v>1508000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5442,13 +5475,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="F196" s="18">
         <v>60320</v>
@@ -5465,19 +5498,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="F197" s="18">
-        <v>46400</v>
+        <v>60320</v>
       </c>
       <c r="G197" s="18">
-        <v>1160000</v>
+        <v>1508000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5488,19 +5521,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="F198" s="18">
-        <v>46400</v>
+        <v>60320</v>
       </c>
       <c r="G198" s="18">
-        <v>1160000</v>
+        <v>1508000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5511,75 +5544,1708 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="F199" s="18">
-        <v>225812</v>
+        <v>60320</v>
       </c>
       <c r="G199" s="18">
-        <v>5645304</v>
+        <v>1508000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
       <c r="J199" s="20"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B200" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D200" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E200" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F200" s="24">
-        <v>120000</v>
-      </c>
-      <c r="G200" s="24">
-        <v>3000000</v>
-      </c>
-      <c r="H200" s="25"/>
-      <c r="I200" s="25"/>
-      <c r="J200" s="26"/>
+      <c r="B200" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200" s="18">
+        <v>60320</v>
+      </c>
+      <c r="G200" s="18">
+        <v>1508000</v>
+      </c>
+      <c r="H200" s="19"/>
+      <c r="I200" s="19"/>
+      <c r="J200" s="20"/>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B201" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201" s="18">
+        <v>60320</v>
+      </c>
+      <c r="G201" s="18">
+        <v>1508000</v>
+      </c>
+      <c r="H201" s="19"/>
+      <c r="I201" s="19"/>
+      <c r="J201" s="20"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B202" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F202" s="18">
+        <v>60320</v>
+      </c>
+      <c r="G202" s="18">
+        <v>1508000</v>
+      </c>
+      <c r="H202" s="19"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="20"/>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B203" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E203" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F203" s="18">
+        <v>60320</v>
+      </c>
+      <c r="G203" s="18">
+        <v>1508000</v>
+      </c>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="20"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B204" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F204" s="18">
+        <v>60320</v>
+      </c>
+      <c r="G204" s="18">
+        <v>1508000</v>
+      </c>
+      <c r="H204" s="19"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="20"/>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B205" s="32" t="s">
+      <c r="B205" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E205" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F205" s="18">
+        <v>60320</v>
+      </c>
+      <c r="G205" s="18">
+        <v>1508000</v>
+      </c>
+      <c r="H205" s="19"/>
+      <c r="I205" s="19"/>
+      <c r="J205" s="20"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B206" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F206" s="18">
+        <v>60320</v>
+      </c>
+      <c r="G206" s="18">
+        <v>1508000</v>
+      </c>
+      <c r="H206" s="19"/>
+      <c r="I206" s="19"/>
+      <c r="J206" s="20"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B207" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F207" s="18">
+        <v>60320</v>
+      </c>
+      <c r="G207" s="18">
+        <v>1508000</v>
+      </c>
+      <c r="H207" s="19"/>
+      <c r="I207" s="19"/>
+      <c r="J207" s="20"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B208" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E208" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F208" s="18">
+        <v>60320</v>
+      </c>
+      <c r="G208" s="18">
+        <v>1508000</v>
+      </c>
+      <c r="H208" s="19"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="20"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B209" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E209" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F209" s="18">
+        <v>60320</v>
+      </c>
+      <c r="G209" s="18">
+        <v>1508000</v>
+      </c>
+      <c r="H209" s="19"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="20"/>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B210" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E210" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F210" s="18">
+        <v>60320</v>
+      </c>
+      <c r="G210" s="18">
+        <v>1508000</v>
+      </c>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="20"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B211" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F211" s="18">
+        <v>60320</v>
+      </c>
+      <c r="G211" s="18">
+        <v>1508000</v>
+      </c>
+      <c r="H211" s="19"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="20"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B212" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F212" s="18">
+        <v>60320</v>
+      </c>
+      <c r="G212" s="18">
+        <v>1508000</v>
+      </c>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="20"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B213" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E213" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F213" s="18">
+        <v>339360</v>
+      </c>
+      <c r="G213" s="18">
+        <v>8484000</v>
+      </c>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="20"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B214" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E214" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F214" s="18">
+        <v>339360</v>
+      </c>
+      <c r="G214" s="18">
+        <v>8484000</v>
+      </c>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="20"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B215" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E215" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F215" s="18">
+        <v>339360</v>
+      </c>
+      <c r="G215" s="18">
+        <v>8484000</v>
+      </c>
+      <c r="H215" s="19"/>
+      <c r="I215" s="19"/>
+      <c r="J215" s="20"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B216" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E216" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F216" s="18">
+        <v>339360</v>
+      </c>
+      <c r="G216" s="18">
+        <v>8484000</v>
+      </c>
+      <c r="H216" s="19"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="20"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B217" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E217" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F217" s="18">
+        <v>300000</v>
+      </c>
+      <c r="G217" s="18">
+        <v>8484000</v>
+      </c>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="20"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B218" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F218" s="18">
+        <v>300000</v>
+      </c>
+      <c r="G218" s="18">
+        <v>8484000</v>
+      </c>
+      <c r="H218" s="19"/>
+      <c r="I218" s="19"/>
+      <c r="J218" s="20"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B219" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G219" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H219" s="19"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="20"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B220" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G220" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H220" s="19"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="20"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B221" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E221" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F221" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G221" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H221" s="19"/>
+      <c r="I221" s="19"/>
+      <c r="J221" s="20"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B222" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E222" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F222" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G222" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H222" s="19"/>
+      <c r="I222" s="19"/>
+      <c r="J222" s="20"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B223" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E223" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F223" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G223" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H223" s="19"/>
+      <c r="I223" s="19"/>
+      <c r="J223" s="20"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B224" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F224" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G224" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H224" s="19"/>
+      <c r="I224" s="19"/>
+      <c r="J224" s="20"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B225" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E225" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F225" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G225" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H225" s="19"/>
+      <c r="I225" s="19"/>
+      <c r="J225" s="20"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B226" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E226" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F226" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G226" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H226" s="19"/>
+      <c r="I226" s="19"/>
+      <c r="J226" s="20"/>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B227" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E227" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F227" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G227" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H227" s="19"/>
+      <c r="I227" s="19"/>
+      <c r="J227" s="20"/>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B228" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E228" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F228" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G228" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H228" s="19"/>
+      <c r="I228" s="19"/>
+      <c r="J228" s="20"/>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B229" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E229" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F229" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G229" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H229" s="19"/>
+      <c r="I229" s="19"/>
+      <c r="J229" s="20"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B230" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E230" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F230" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G230" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H230" s="19"/>
+      <c r="I230" s="19"/>
+      <c r="J230" s="20"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B231" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E231" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F231" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G231" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H231" s="19"/>
+      <c r="I231" s="19"/>
+      <c r="J231" s="20"/>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B232" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D232" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E232" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F232" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G232" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H232" s="19"/>
+      <c r="I232" s="19"/>
+      <c r="J232" s="20"/>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B233" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E233" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F233" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G233" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H233" s="19"/>
+      <c r="I233" s="19"/>
+      <c r="J233" s="20"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B234" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E234" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F234" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G234" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H234" s="19"/>
+      <c r="I234" s="19"/>
+      <c r="J234" s="20"/>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B235" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E235" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F235" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G235" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H235" s="19"/>
+      <c r="I235" s="19"/>
+      <c r="J235" s="20"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B236" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E236" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F236" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G236" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H236" s="19"/>
+      <c r="I236" s="19"/>
+      <c r="J236" s="20"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B237" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D237" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E237" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F237" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G237" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H237" s="19"/>
+      <c r="I237" s="19"/>
+      <c r="J237" s="20"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B238" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D238" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E238" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F238" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G238" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H238" s="19"/>
+      <c r="I238" s="19"/>
+      <c r="J238" s="20"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B239" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E239" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F239" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G239" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H239" s="19"/>
+      <c r="I239" s="19"/>
+      <c r="J239" s="20"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B240" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E240" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F240" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G240" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H240" s="19"/>
+      <c r="I240" s="19"/>
+      <c r="J240" s="20"/>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B241" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E241" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F241" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G241" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H241" s="19"/>
+      <c r="I241" s="19"/>
+      <c r="J241" s="20"/>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B242" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E242" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F242" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G242" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H242" s="19"/>
+      <c r="I242" s="19"/>
+      <c r="J242" s="20"/>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B243" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E243" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F243" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G243" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H243" s="19"/>
+      <c r="I243" s="19"/>
+      <c r="J243" s="20"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B244" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E244" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F244" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G244" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H244" s="19"/>
+      <c r="I244" s="19"/>
+      <c r="J244" s="20"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B245" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E245" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F245" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G245" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H245" s="19"/>
+      <c r="I245" s="19"/>
+      <c r="J245" s="20"/>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B246" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E246" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F246" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G246" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H246" s="19"/>
+      <c r="I246" s="19"/>
+      <c r="J246" s="20"/>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B247" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E247" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F247" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G247" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H247" s="19"/>
+      <c r="I247" s="19"/>
+      <c r="J247" s="20"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B248" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E248" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F248" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G248" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H248" s="19"/>
+      <c r="I248" s="19"/>
+      <c r="J248" s="20"/>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B249" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E249" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F249" s="18">
+        <v>1547</v>
+      </c>
+      <c r="G249" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H249" s="19"/>
+      <c r="I249" s="19"/>
+      <c r="J249" s="20"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B250" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E250" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F250" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G250" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H250" s="19"/>
+      <c r="I250" s="19"/>
+      <c r="J250" s="20"/>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B251" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E251" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F251" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G251" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H251" s="19"/>
+      <c r="I251" s="19"/>
+      <c r="J251" s="20"/>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B252" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E252" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F252" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G252" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H252" s="19"/>
+      <c r="I252" s="19"/>
+      <c r="J252" s="20"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B253" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E253" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F253" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G253" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H253" s="19"/>
+      <c r="I253" s="19"/>
+      <c r="J253" s="20"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B254" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E254" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F254" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G254" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H254" s="19"/>
+      <c r="I254" s="19"/>
+      <c r="J254" s="20"/>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B255" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D255" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E255" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F255" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G255" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H255" s="19"/>
+      <c r="I255" s="19"/>
+      <c r="J255" s="20"/>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B256" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D256" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E256" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F256" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G256" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H256" s="19"/>
+      <c r="I256" s="19"/>
+      <c r="J256" s="20"/>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B257" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D257" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E257" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F257" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G257" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H257" s="19"/>
+      <c r="I257" s="19"/>
+      <c r="J257" s="20"/>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B258" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E258" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F258" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G258" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H258" s="19"/>
+      <c r="I258" s="19"/>
+      <c r="J258" s="20"/>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B259" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E259" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F259" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G259" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H259" s="19"/>
+      <c r="I259" s="19"/>
+      <c r="J259" s="20"/>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B260" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E260" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F260" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G260" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H260" s="19"/>
+      <c r="I260" s="19"/>
+      <c r="J260" s="20"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B261" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E261" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F261" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G261" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H261" s="19"/>
+      <c r="I261" s="19"/>
+      <c r="J261" s="20"/>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B262" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E262" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F262" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G262" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H262" s="19"/>
+      <c r="I262" s="19"/>
+      <c r="J262" s="20"/>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B263" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D263" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E263" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F263" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G263" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H263" s="19"/>
+      <c r="I263" s="19"/>
+      <c r="J263" s="20"/>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B264" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E264" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F264" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G264" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H264" s="19"/>
+      <c r="I264" s="19"/>
+      <c r="J264" s="20"/>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B265" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D265" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E265" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F265" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G265" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H265" s="19"/>
+      <c r="I265" s="19"/>
+      <c r="J265" s="20"/>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B266" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D266" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E266" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F266" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G266" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H266" s="19"/>
+      <c r="I266" s="19"/>
+      <c r="J266" s="20"/>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B267" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C267" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C205" s="32"/>
-      <c r="H205" s="1" t="s">
+      <c r="D267" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E267" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F267" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G267" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H267" s="19"/>
+      <c r="I267" s="19"/>
+      <c r="J267" s="20"/>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B268" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B206" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C206" s="32"/>
-      <c r="H206" s="1" t="s">
+      <c r="D268" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
+      <c r="E268" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F268" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G268" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H268" s="19"/>
+      <c r="I268" s="19"/>
+      <c r="J268" s="20"/>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B269" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D269" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E269" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F269" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G269" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H269" s="19"/>
+      <c r="I269" s="19"/>
+      <c r="J269" s="20"/>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B270" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D270" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E270" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F270" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G270" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H270" s="19"/>
+      <c r="I270" s="19"/>
+      <c r="J270" s="20"/>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B271" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D271" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E271" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F271" s="24">
+        <v>20800</v>
+      </c>
+      <c r="G271" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H271" s="25"/>
+      <c r="I271" s="25"/>
+      <c r="J271" s="26"/>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B276" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C276" s="32"/>
+      <c r="H276" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1"/>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B277" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C277" s="32"/>
+      <c r="H277" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I277" s="1"/>
+      <c r="J277" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="H206:J206"/>
-    <mergeCell ref="H205:J205"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="H277:J277"/>
+    <mergeCell ref="H276:J276"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9000425812.xlsx
+++ b/Data/EC/NIT-9000425812.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C760578-A6B4-43B1-B3F4-1C3F7B2F7533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E129A259-3C4D-4785-A029-966923E08B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{68D3547E-5BFD-40D4-AEA5-D3EE3635DD3F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E8D8AFD2-D6A7-4C92-A6C5-C6D78F478471}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="122">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,343 +65,310 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73572334</t>
-  </si>
-  <si>
-    <t>MARCELO ALEXANDER VARGAS BARRERA</t>
+    <t>1047487417</t>
+  </si>
+  <si>
+    <t>GERARDO GUERRERO ALGARIN</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>42129436</t>
+  </si>
+  <si>
+    <t>OLGA LUCIA GAVIRIA RIFALDO</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1143353093</t>
+  </si>
+  <si>
+    <t>MARIA TERESA VASQUEZ AMARIS</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1050968656</t>
+  </si>
+  <si>
+    <t>CRISTOBAL DAVID CASTILLA RUIZ</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1019114344</t>
+  </si>
+  <si>
+    <t>LADY JHOANA LEITON PEÑA</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>1007313010</t>
+  </si>
+  <si>
+    <t>ALIX CAROLINA DE LA ROSA MENDOZA</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>73187225</t>
+  </si>
+  <si>
+    <t>YEHISSON BOLIVAR WATTS</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>1038407499</t>
+  </si>
+  <si>
+    <t>JUAN DAVID NARANJO RAMIREZ</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>1002412655</t>
+  </si>
+  <si>
+    <t>LUIS DAVID PITALUA DE ARCO</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>1047457661</t>
+  </si>
+  <si>
+    <t>CANDELARIA PAOLA CARBALLO GOMEZ</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>1047485718</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS VENTURA MARTINEZ</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>1044936486</t>
+  </si>
+  <si>
+    <t>YORLAN ENRIQUE CHIQUILLO SALAS</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>1143414569</t>
+  </si>
+  <si>
+    <t>EDGAR DE JESUS BAYUELO FERIAS</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>1143341348</t>
+  </si>
+  <si>
+    <t>WENDY JOHANNA CARBALLO MARMOL</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>1143353042</t>
+  </si>
+  <si>
+    <t>YESSICA DEL CARMEN FAJARDO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1050963344</t>
+  </si>
+  <si>
+    <t>KARINA PAOLA MONTT DORIA</t>
+  </si>
+  <si>
+    <t>1143408170</t>
+  </si>
+  <si>
+    <t>KATHY LORENA PARRA LEMUS</t>
+  </si>
+  <si>
+    <t>1143371837</t>
+  </si>
+  <si>
+    <t>CHRISTIAN CAMILO RODRIGUEZ CASTELLON</t>
+  </si>
+  <si>
+    <t>1002058942</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE CASTILLA MORALES</t>
+  </si>
+  <si>
+    <t>1007130603</t>
+  </si>
+  <si>
+    <t>JORSSER LUIS CASTRO MORALES</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>1005649919</t>
+  </si>
+  <si>
+    <t>JULIAN DAVID CASTILLA GAMARRA</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>73187225</t>
-  </si>
-  <si>
-    <t>YEHISSON BOLIVAR WATTS</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>1143341348</t>
-  </si>
-  <si>
-    <t>WENDY JOHANNA CARBALLO MARMOL</t>
-  </si>
-  <si>
-    <t>1050968656</t>
-  </si>
-  <si>
-    <t>CRISTOBAL DAVID CASTILLA RUIZ</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>22799836</t>
-  </si>
-  <si>
-    <t>CAROLINA CONSUEGRA CARMONA</t>
-  </si>
-  <si>
-    <t>1049828585</t>
-  </si>
-  <si>
-    <t>INOCENCIO PARRA BIBANCO</t>
-  </si>
-  <si>
-    <t>1047487417</t>
-  </si>
-  <si>
-    <t>GERARDO GUERRERO ALGARIN</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1143353042</t>
-  </si>
-  <si>
-    <t>YESSICA DEL CARMEN FAJARDO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>42129436</t>
-  </si>
-  <si>
-    <t>OLGA LUCIA GAVIRIA RIFALDO</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1047457661</t>
-  </si>
-  <si>
-    <t>CANDELARIA PAOLA CARBALLO GOMEZ</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>1050963344</t>
-  </si>
-  <si>
-    <t>KARINA PAOLA MONTT DORIA</t>
-  </si>
-  <si>
-    <t>1047500236</t>
-  </si>
-  <si>
-    <t>NEDER LUIS CUADRADO MARTINEZ</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>1047485718</t>
-  </si>
-  <si>
-    <t>ROBERTO CARLOS VENTURA MARTINEZ</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>1143408170</t>
-  </si>
-  <si>
-    <t>KATHY LORENA PARRA LEMUS</t>
-  </si>
-  <si>
-    <t>1143353093</t>
-  </si>
-  <si>
-    <t>MARIA TERESA VASQUEZ AMARIS</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1143371837</t>
-  </si>
-  <si>
-    <t>CHRISTIAN CAMILO RODRIGUEZ CASTELLON</t>
-  </si>
-  <si>
-    <t>1044936486</t>
-  </si>
-  <si>
-    <t>YORLAN ENRIQUE CHIQUILLO SALAS</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>1002058942</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE CASTILLA MORALES</t>
-  </si>
-  <si>
-    <t>1098704671</t>
-  </si>
-  <si>
-    <t>ANDRES FELIPE OSORIO CAMARGO</t>
-  </si>
-  <si>
-    <t>1007313010</t>
-  </si>
-  <si>
-    <t>ALIX CAROLINA DE LA ROSA MENDOZA</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>1019114344</t>
-  </si>
-  <si>
-    <t>LADY JHOANA LEITON PEÑA</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>91537731</t>
-  </si>
-  <si>
-    <t>ELBIS ACUÑA CACERES</t>
-  </si>
-  <si>
-    <t>1007130603</t>
-  </si>
-  <si>
-    <t>JORSSER LUIS CASTRO MORALES</t>
-  </si>
-  <si>
-    <t>1038407499</t>
-  </si>
-  <si>
-    <t>JUAN DAVID NARANJO RAMIREZ</t>
-  </si>
-  <si>
-    <t>1002412655</t>
-  </si>
-  <si>
-    <t>LUIS DAVID PITALUA DE ARCO</t>
-  </si>
-  <si>
-    <t>1143414569</t>
-  </si>
-  <si>
-    <t>EDGAR DE JESUS BAYUELO FERIAS</t>
-  </si>
-  <si>
-    <t>1005649919</t>
-  </si>
-  <si>
-    <t>JULIAN DAVID CASTILLA GAMARRA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -500,7 +467,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -513,9 +482,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -715,23 +682,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,10 +726,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,7 +782,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378FAF6E-2E39-D254-CBA3-05874B809869}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D63E028E-0E84-2A23-AF0D-DF581B5D3A8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,8 +1133,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B4D8E-7CC0-4EB6-BB04-A6FD8EE4AD88}">
-  <dimension ref="B2:J277"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AB1F4F-DE25-4E1E-B29B-D88A9D0C1A9E}">
+  <dimension ref="B2:J198"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1191,7 +1158,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1236,7 +1203,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1268,12 +1235,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>22081838</v>
+        <v>14870663</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1284,17 +1251,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C13" s="5">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F13" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1321,13 +1288,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1344,10 +1311,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>19200</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>900000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1358,19 +1325,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>200000</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>5000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1381,19 +1348,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>19068</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1404,19 +1371,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1427,19 +1394,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>20833</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>924560</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1450,19 +1417,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1473,19 +1440,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>1042</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>924560</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1496,19 +1463,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1519,19 +1486,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1542,19 +1509,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1565,19 +1532,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1588,19 +1555,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1611,19 +1578,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1634,19 +1601,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1657,19 +1624,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1680,19 +1647,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1703,19 +1670,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G32" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1726,19 +1693,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1749,19 +1716,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
-        <v>46400</v>
+        <v>57203</v>
       </c>
       <c r="G34" s="18">
-        <v>1160000</v>
+        <v>1430072</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1772,19 +1739,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
-        <v>14667</v>
+        <v>57203</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>1430072</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1795,19 +1762,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F36" s="18">
-        <v>135744</v>
+        <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>3393600</v>
+        <v>3000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1818,19 +1785,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F37" s="18">
-        <v>1042</v>
+        <v>28000</v>
       </c>
       <c r="G37" s="18">
-        <v>924560</v>
+        <v>1740000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1841,19 +1808,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F38" s="18">
-        <v>20833</v>
+        <v>60000</v>
       </c>
       <c r="G38" s="18">
-        <v>924560</v>
+        <v>1740000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1864,19 +1831,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F39" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G39" s="18">
-        <v>1035000</v>
+        <v>3000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1887,19 +1854,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F40" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G40" s="18">
-        <v>1035000</v>
+        <v>3000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1910,19 +1877,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F41" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G41" s="18">
-        <v>1035000</v>
+        <v>3000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1933,19 +1900,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F42" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G42" s="18">
-        <v>1035000</v>
+        <v>3000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1956,19 +1923,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F43" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G43" s="18">
-        <v>1035000</v>
+        <v>3000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1979,19 +1946,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F44" s="18">
-        <v>225812</v>
+        <v>14667</v>
       </c>
       <c r="G44" s="18">
-        <v>1035000</v>
+        <v>1000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2002,19 +1969,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F45" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G45" s="18">
-        <v>1035000</v>
+        <v>3000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2025,19 +1992,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F46" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G46" s="18">
-        <v>1035000</v>
+        <v>3000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2048,19 +2015,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F47" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G47" s="18">
-        <v>1035000</v>
+        <v>3000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2071,19 +2038,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F48" s="18">
-        <v>225812</v>
+        <v>300000</v>
       </c>
       <c r="G48" s="18">
-        <v>1035000</v>
+        <v>8484000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2094,19 +2061,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F49" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G49" s="18">
-        <v>1035000</v>
+        <v>3000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2117,19 +2084,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F50" s="18">
-        <v>225812</v>
+        <v>300000</v>
       </c>
       <c r="G50" s="18">
-        <v>1035000</v>
+        <v>8484000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2140,19 +2107,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F51" s="18">
-        <v>225812</v>
+        <v>1547</v>
       </c>
       <c r="G51" s="18">
-        <v>1035000</v>
+        <v>1160000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2163,19 +2130,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F52" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G52" s="18">
-        <v>1035000</v>
+        <v>3000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2186,19 +2153,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F53" s="18">
-        <v>225812</v>
+        <v>46400</v>
       </c>
       <c r="G53" s="18">
-        <v>1035000</v>
+        <v>1160000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2209,19 +2176,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F54" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G54" s="18">
-        <v>1035000</v>
+        <v>3000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2232,19 +2199,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F55" s="18">
-        <v>225812</v>
+        <v>46400</v>
       </c>
       <c r="G55" s="18">
-        <v>1035000</v>
+        <v>1160000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2255,19 +2222,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F56" s="18">
-        <v>225812</v>
+        <v>120000</v>
       </c>
       <c r="G56" s="18">
-        <v>1035000</v>
+        <v>3000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2278,19 +2245,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F57" s="18">
-        <v>225812</v>
+        <v>339360</v>
       </c>
       <c r="G57" s="18">
-        <v>1035000</v>
+        <v>8484000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2301,19 +2268,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F58" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G58" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2324,19 +2291,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F59" s="18">
-        <v>52000</v>
+        <v>120000</v>
       </c>
       <c r="G59" s="18">
-        <v>689455</v>
+        <v>3000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2347,19 +2314,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F60" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G60" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2370,19 +2337,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F61" s="18">
-        <v>52000</v>
+        <v>120000</v>
       </c>
       <c r="G61" s="18">
-        <v>689455</v>
+        <v>3000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2393,19 +2360,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F62" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G62" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2416,19 +2383,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F63" s="18">
-        <v>52000</v>
+        <v>5447</v>
       </c>
       <c r="G63" s="18">
-        <v>689455</v>
+        <v>2042760</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2439,19 +2406,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F64" s="18">
-        <v>52000</v>
+        <v>120000</v>
       </c>
       <c r="G64" s="18">
-        <v>689455</v>
+        <v>3000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2462,19 +2429,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F65" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G65" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2485,19 +2452,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F66" s="18">
-        <v>52000</v>
+        <v>120000</v>
       </c>
       <c r="G66" s="18">
-        <v>689455</v>
+        <v>3000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2508,19 +2475,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F67" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G67" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2531,19 +2498,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F68" s="18">
-        <v>52000</v>
+        <v>9280</v>
       </c>
       <c r="G68" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2554,19 +2521,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F69" s="18">
-        <v>52000</v>
+        <v>120000</v>
       </c>
       <c r="G69" s="18">
-        <v>689455</v>
+        <v>3000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2577,19 +2544,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F70" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G70" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2600,19 +2567,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F71" s="18">
-        <v>19200</v>
+        <v>52278</v>
       </c>
       <c r="G71" s="18">
-        <v>900000</v>
+        <v>1508000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2623,19 +2590,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F72" s="18">
-        <v>97440</v>
+        <v>120000</v>
       </c>
       <c r="G72" s="18">
-        <v>2436000</v>
+        <v>3000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2646,19 +2613,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F73" s="18">
-        <v>200000</v>
+        <v>46400</v>
       </c>
       <c r="G73" s="18">
-        <v>5000000</v>
+        <v>1160000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2669,19 +2636,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F74" s="18">
-        <v>5447</v>
+        <v>120000</v>
       </c>
       <c r="G74" s="18">
-        <v>2042760</v>
+        <v>3000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2698,13 +2665,13 @@
         <v>55</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="F75" s="18">
-        <v>69600</v>
+        <v>46400</v>
       </c>
       <c r="G75" s="18">
-        <v>1740000</v>
+        <v>1160000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2715,19 +2682,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
-        <v>72000</v>
+        <v>46400</v>
       </c>
       <c r="G76" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2738,19 +2705,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F77" s="18">
-        <v>9280</v>
+        <v>120000</v>
       </c>
       <c r="G77" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2761,19 +2728,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F78" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G78" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2784,19 +2751,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F79" s="18">
-        <v>120000</v>
+        <v>135744</v>
       </c>
       <c r="G79" s="18">
-        <v>3000000</v>
+        <v>3393600</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2807,19 +2774,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="F80" s="18">
-        <v>120000</v>
+        <v>97440</v>
       </c>
       <c r="G80" s="18">
-        <v>3000000</v>
+        <v>2436000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2830,19 +2797,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F81" s="18">
-        <v>120000</v>
+        <v>69600</v>
       </c>
       <c r="G81" s="18">
-        <v>3000000</v>
+        <v>1740000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2853,13 +2820,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
         <v>120000</v>
@@ -2876,19 +2843,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="F83" s="18">
-        <v>120000</v>
+        <v>81716</v>
       </c>
       <c r="G83" s="18">
-        <v>3000000</v>
+        <v>2042899</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2899,19 +2866,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="F84" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G84" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2922,19 +2889,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F85" s="18">
-        <v>120000</v>
+        <v>69600</v>
       </c>
       <c r="G85" s="18">
-        <v>3000000</v>
+        <v>1740000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2945,13 +2912,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="F86" s="18">
         <v>120000</v>
@@ -2968,19 +2935,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F87" s="18">
-        <v>120000</v>
+        <v>60320</v>
       </c>
       <c r="G87" s="18">
-        <v>3000000</v>
+        <v>1508000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2991,19 +2958,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="F88" s="18">
-        <v>120000</v>
+        <v>339360</v>
       </c>
       <c r="G88" s="18">
-        <v>3000000</v>
+        <v>8484000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3014,19 +2981,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F89" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G89" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3037,13 +3004,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F90" s="18">
         <v>120000</v>
@@ -3060,19 +3027,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="F91" s="18">
-        <v>120000</v>
+        <v>81716</v>
       </c>
       <c r="G91" s="18">
-        <v>3000000</v>
+        <v>2042899</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3083,19 +3050,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F92" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G92" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3106,13 +3073,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F93" s="18">
         <v>120000</v>
@@ -3129,19 +3096,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="F94" s="18">
-        <v>120000</v>
+        <v>60320</v>
       </c>
       <c r="G94" s="18">
-        <v>3000000</v>
+        <v>1508000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3152,19 +3119,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F95" s="18">
-        <v>120000</v>
+        <v>339360</v>
       </c>
       <c r="G95" s="18">
-        <v>3000000</v>
+        <v>8484000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3175,19 +3142,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="F96" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G96" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3198,19 +3165,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F97" s="18">
-        <v>57203</v>
+        <v>20800</v>
       </c>
       <c r="G97" s="18">
-        <v>1430072</v>
+        <v>1300000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3221,19 +3188,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F98" s="18">
-        <v>57203</v>
+        <v>120000</v>
       </c>
       <c r="G98" s="18">
-        <v>1430072</v>
+        <v>3000000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3244,19 +3211,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F99" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G99" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3267,19 +3234,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F100" s="18">
-        <v>57203</v>
+        <v>120000</v>
       </c>
       <c r="G100" s="18">
-        <v>1430072</v>
+        <v>3000000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3290,19 +3257,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="F101" s="18">
-        <v>57203</v>
+        <v>60320</v>
       </c>
       <c r="G101" s="18">
-        <v>1430072</v>
+        <v>1508000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3313,19 +3280,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F102" s="18">
-        <v>57203</v>
+        <v>339360</v>
       </c>
       <c r="G102" s="18">
-        <v>1430072</v>
+        <v>8484000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3336,19 +3303,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F103" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G103" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3359,19 +3326,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F104" s="18">
-        <v>57203</v>
+        <v>52000</v>
       </c>
       <c r="G104" s="18">
-        <v>1430072</v>
+        <v>1300000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3382,19 +3349,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F105" s="18">
-        <v>57203</v>
+        <v>120000</v>
       </c>
       <c r="G105" s="18">
-        <v>1430072</v>
+        <v>3000000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3405,19 +3372,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F106" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G106" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3428,19 +3395,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F107" s="18">
-        <v>57203</v>
+        <v>120000</v>
       </c>
       <c r="G107" s="18">
-        <v>1430072</v>
+        <v>3000000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3451,19 +3418,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F108" s="18">
-        <v>57203</v>
+        <v>60320</v>
       </c>
       <c r="G108" s="18">
-        <v>1430072</v>
+        <v>1508000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3474,19 +3441,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="F109" s="18">
-        <v>57203</v>
+        <v>46400</v>
       </c>
       <c r="G109" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3497,19 +3464,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F110" s="18">
-        <v>57203</v>
+        <v>52000</v>
       </c>
       <c r="G110" s="18">
-        <v>1430072</v>
+        <v>1300000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3520,19 +3487,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F111" s="18">
-        <v>57203</v>
+        <v>120000</v>
       </c>
       <c r="G111" s="18">
-        <v>1430072</v>
+        <v>3000000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3543,19 +3510,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F112" s="18">
-        <v>19068</v>
+        <v>46400</v>
       </c>
       <c r="G112" s="18">
-        <v>1430072</v>
+        <v>1160000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3566,19 +3533,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="F113" s="18">
-        <v>81716</v>
+        <v>120000</v>
       </c>
       <c r="G113" s="18">
-        <v>2042899</v>
+        <v>3000000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3589,19 +3556,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="F114" s="18">
-        <v>81716</v>
+        <v>60320</v>
       </c>
       <c r="G114" s="18">
-        <v>2042899</v>
+        <v>1508000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3612,19 +3579,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F115" s="18">
-        <v>52278</v>
+        <v>46400</v>
       </c>
       <c r="G115" s="18">
-        <v>1508000</v>
+        <v>1160000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3635,19 +3602,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="F116" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G116" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3658,19 +3625,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="F117" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G117" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3681,13 +3648,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="F118" s="18">
         <v>46400</v>
@@ -3704,19 +3671,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F119" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G119" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3727,19 +3694,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="F120" s="18">
-        <v>46400</v>
+        <v>60320</v>
       </c>
       <c r="G120" s="18">
-        <v>1160000</v>
+        <v>1508000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3750,13 +3717,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="F121" s="18">
         <v>46400</v>
@@ -3773,19 +3740,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F122" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G122" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3796,19 +3763,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F123" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G123" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3819,13 +3786,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="F124" s="18">
         <v>46400</v>
@@ -3842,19 +3809,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="F125" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G125" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3865,19 +3832,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="F126" s="18">
-        <v>46400</v>
+        <v>60320</v>
       </c>
       <c r="G126" s="18">
-        <v>1160000</v>
+        <v>1508000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3888,13 +3855,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="F127" s="18">
         <v>46400</v>
@@ -3911,19 +3878,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="F128" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G128" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3934,13 +3901,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F129" s="18">
         <v>46400</v>
@@ -3957,19 +3924,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="F130" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G130" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3980,19 +3947,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F131" s="18">
-        <v>46400</v>
+        <v>60320</v>
       </c>
       <c r="G131" s="18">
-        <v>1160000</v>
+        <v>1508000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4003,13 +3970,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="F132" s="18">
         <v>46400</v>
@@ -4026,19 +3993,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="F133" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G133" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4049,13 +4016,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="F134" s="18">
         <v>46400</v>
@@ -4072,19 +4039,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="F135" s="18">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G135" s="18">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4095,19 +4062,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D136" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D136" s="17" t="s">
-        <v>90</v>
-      </c>
       <c r="E136" s="16" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="F136" s="18">
-        <v>69600</v>
+        <v>60320</v>
       </c>
       <c r="G136" s="18">
-        <v>1740000</v>
+        <v>1508000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4118,19 +4085,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F137" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G137" s="18">
-        <v>1740000</v>
+        <v>1160000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4141,19 +4108,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F138" s="18">
-        <v>28000</v>
+        <v>120000</v>
       </c>
       <c r="G138" s="18">
-        <v>1740000</v>
+        <v>3000000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4164,19 +4131,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F139" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G139" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4187,13 +4154,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F140" s="18">
         <v>120000</v>
@@ -4210,19 +4177,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="F141" s="18">
-        <v>120000</v>
+        <v>60320</v>
       </c>
       <c r="G141" s="18">
-        <v>3000000</v>
+        <v>1508000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4233,19 +4200,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F142" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G142" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4256,13 +4223,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F143" s="18">
         <v>120000</v>
@@ -4279,19 +4246,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="F144" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G144" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4302,13 +4269,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="F145" s="18">
         <v>120000</v>
@@ -4325,19 +4292,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="F146" s="18">
-        <v>120000</v>
+        <v>60320</v>
       </c>
       <c r="G146" s="18">
-        <v>3000000</v>
+        <v>1508000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4348,19 +4315,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="F147" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G147" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4371,13 +4338,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="F148" s="18">
         <v>120000</v>
@@ -4394,19 +4361,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F149" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G149" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4417,13 +4384,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="F150" s="18">
         <v>120000</v>
@@ -4440,19 +4407,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="F151" s="18">
-        <v>120000</v>
+        <v>60320</v>
       </c>
       <c r="G151" s="18">
-        <v>3000000</v>
+        <v>1508000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4463,19 +4430,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="F152" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G152" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4486,13 +4453,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="F153" s="18">
         <v>120000</v>
@@ -4509,19 +4476,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="F154" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G154" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4532,13 +4499,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="F155" s="18">
         <v>120000</v>
@@ -4555,19 +4522,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="F156" s="18">
-        <v>120000</v>
+        <v>60320</v>
       </c>
       <c r="G156" s="18">
-        <v>3000000</v>
+        <v>1508000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4578,19 +4545,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="F157" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G157" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4601,13 +4568,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F158" s="18">
         <v>120000</v>
@@ -4624,19 +4591,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="F159" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G159" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4647,13 +4614,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F160" s="18">
         <v>120000</v>
@@ -4670,19 +4637,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="F161" s="18">
-        <v>120000</v>
+        <v>60320</v>
       </c>
       <c r="G161" s="18">
-        <v>3000000</v>
+        <v>1508000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4693,19 +4660,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F162" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G162" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4716,13 +4683,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F163" s="18">
         <v>120000</v>
@@ -4739,19 +4706,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F164" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G164" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4762,13 +4729,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F165" s="18">
         <v>120000</v>
@@ -4785,19 +4752,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F166" s="18">
-        <v>120000</v>
+        <v>60320</v>
       </c>
       <c r="G166" s="18">
-        <v>3000000</v>
+        <v>1508000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4808,19 +4775,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F167" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G167" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4831,13 +4798,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F168" s="18">
         <v>120000</v>
@@ -4854,19 +4821,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F169" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G169" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4877,13 +4844,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F170" s="18">
         <v>120000</v>
@@ -4900,19 +4867,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F171" s="18">
-        <v>120000</v>
+        <v>60320</v>
       </c>
       <c r="G171" s="18">
-        <v>3000000</v>
+        <v>1508000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4923,19 +4890,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="F172" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G172" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4946,13 +4913,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F173" s="18">
         <v>120000</v>
@@ -4969,19 +4936,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F174" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G174" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4992,10 +4959,10 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>107</v>
@@ -5015,19 +4982,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F176" s="18">
-        <v>120000</v>
+        <v>60320</v>
       </c>
       <c r="G176" s="18">
-        <v>3000000</v>
+        <v>1508000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5038,19 +5005,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F177" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G177" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5061,16 +5028,16 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F178" s="18">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="G178" s="18">
         <v>3000000</v>
@@ -5084,19 +5051,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F179" s="18">
-        <v>13867</v>
+        <v>46400</v>
       </c>
       <c r="G179" s="18">
-        <v>1397901</v>
+        <v>1160000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5107,19 +5074,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="F180" s="18">
-        <v>52000</v>
+        <v>120000</v>
       </c>
       <c r="G180" s="18">
-        <v>1397901</v>
+        <v>3000000</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5130,19 +5097,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F181" s="18">
-        <v>52000</v>
+        <v>60320</v>
       </c>
       <c r="G181" s="18">
-        <v>1397901</v>
+        <v>1508000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5153,19 +5120,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F182" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G182" s="18">
-        <v>1397901</v>
+        <v>1160000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5176,19 +5143,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F183" s="18">
-        <v>52000</v>
+        <v>120000</v>
       </c>
       <c r="G183" s="18">
-        <v>1397901</v>
+        <v>3000000</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5199,19 +5166,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="F184" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G184" s="18">
-        <v>1397901</v>
+        <v>1160000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5222,19 +5189,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F185" s="18">
-        <v>52000</v>
+        <v>120000</v>
       </c>
       <c r="G185" s="18">
-        <v>1397901</v>
+        <v>3000000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5245,19 +5212,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="F186" s="18">
-        <v>52000</v>
+        <v>60320</v>
       </c>
       <c r="G186" s="18">
-        <v>1397901</v>
+        <v>1508000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5268,19 +5235,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F187" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G187" s="18">
-        <v>1397901</v>
+        <v>1160000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5291,19 +5258,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E188" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D188" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F188" s="18">
-        <v>52000</v>
+        <v>120000</v>
       </c>
       <c r="G188" s="18">
-        <v>1397901</v>
+        <v>3000000</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5314,19 +5281,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E189" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D189" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F189" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G189" s="18">
-        <v>1397901</v>
+        <v>1160000</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5337,19 +5304,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E190" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D190" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F190" s="18">
-        <v>52000</v>
+        <v>120000</v>
       </c>
       <c r="G190" s="18">
-        <v>1397901</v>
+        <v>3000000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5360,1892 +5327,75 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E191" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D191" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F191" s="18">
-        <v>52000</v>
+        <v>60320</v>
       </c>
       <c r="G191" s="18">
-        <v>1397901</v>
+        <v>1508000</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
       <c r="J191" s="20"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B192" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" s="16" t="s">
+      <c r="B192" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E192" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D192" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E192" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F192" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G192" s="18">
-        <v>1397901</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B193" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D193" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F193" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G193" s="18">
-        <v>1397901</v>
-      </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B194" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F194" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G194" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B195" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E195" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F195" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G195" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B196" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D196" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E196" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F196" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G196" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
+      <c r="F192" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G192" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H192" s="25"/>
+      <c r="I192" s="25"/>
+      <c r="J192" s="26"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B197" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D197" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E197" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F197" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G197" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
+      <c r="B197" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C197" s="32"/>
+      <c r="H197" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B198" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D198" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E198" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F198" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G198" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B199" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D199" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E199" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F199" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G199" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B200" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D200" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F200" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G200" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B201" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D201" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E201" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F201" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G201" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B202" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D202" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E202" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F202" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G202" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="20"/>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B203" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D203" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E203" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F203" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G203" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="20"/>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B204" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E204" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F204" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G204" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="20"/>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B205" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D205" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E205" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F205" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G205" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="20"/>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B206" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C206" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D206" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E206" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F206" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G206" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="20"/>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B207" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D207" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E207" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F207" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G207" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="20"/>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B208" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C208" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D208" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E208" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F208" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G208" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B209" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D209" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E209" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F209" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G209" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B210" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D210" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F210" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G210" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B211" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D211" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E211" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F211" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G211" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B212" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F212" s="18">
-        <v>60320</v>
-      </c>
-      <c r="G212" s="18">
-        <v>1508000</v>
-      </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B213" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D213" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E213" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F213" s="18">
-        <v>339360</v>
-      </c>
-      <c r="G213" s="18">
-        <v>8484000</v>
-      </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B214" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D214" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F214" s="18">
-        <v>339360</v>
-      </c>
-      <c r="G214" s="18">
-        <v>8484000</v>
-      </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B215" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D215" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E215" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F215" s="18">
-        <v>339360</v>
-      </c>
-      <c r="G215" s="18">
-        <v>8484000</v>
-      </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B216" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D216" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E216" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F216" s="18">
-        <v>339360</v>
-      </c>
-      <c r="G216" s="18">
-        <v>8484000</v>
-      </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B217" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D217" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E217" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F217" s="18">
-        <v>300000</v>
-      </c>
-      <c r="G217" s="18">
-        <v>8484000</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B218" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D218" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E218" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F218" s="18">
-        <v>300000</v>
-      </c>
-      <c r="G218" s="18">
-        <v>8484000</v>
-      </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B219" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E219" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F219" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G219" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B220" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E220" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F220" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G220" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B221" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D221" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F221" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G221" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="20"/>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B222" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D222" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E222" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F222" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G222" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B223" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D223" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E223" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F223" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G223" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B224" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D224" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E224" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F224" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G224" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="20"/>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B225" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C225" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D225" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E225" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F225" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G225" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="20"/>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B226" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D226" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E226" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F226" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G226" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="20"/>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B227" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C227" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D227" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E227" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F227" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G227" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="20"/>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B228" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D228" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E228" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F228" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G228" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="20"/>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B229" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C229" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D229" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E229" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F229" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G229" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="20"/>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B230" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C230" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D230" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E230" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F230" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G230" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="20"/>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B231" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D231" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E231" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F231" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G231" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
-      <c r="J231" s="20"/>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B232" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C232" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D232" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E232" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F232" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G232" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
-      <c r="J232" s="20"/>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B233" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C233" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D233" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E233" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F233" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G233" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-      <c r="J233" s="20"/>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B234" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C234" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D234" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E234" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F234" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G234" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
-      <c r="J234" s="20"/>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B235" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C235" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D235" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E235" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F235" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G235" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H235" s="19"/>
-      <c r="I235" s="19"/>
-      <c r="J235" s="20"/>
-    </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B236" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C236" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D236" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E236" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F236" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G236" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="20"/>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B237" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D237" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E237" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F237" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G237" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="20"/>
-    </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B238" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C238" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D238" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E238" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F238" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G238" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="20"/>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B239" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C239" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D239" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E239" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F239" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G239" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="20"/>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B240" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C240" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D240" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E240" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F240" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G240" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="20"/>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B241" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C241" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D241" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E241" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F241" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G241" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="20"/>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B242" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D242" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E242" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F242" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G242" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="20"/>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B243" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C243" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D243" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E243" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F243" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G243" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="20"/>
-    </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B244" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C244" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D244" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E244" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F244" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G244" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="20"/>
-    </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B245" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C245" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D245" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E245" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F245" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G245" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="20"/>
-    </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B246" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C246" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D246" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E246" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F246" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G246" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="20"/>
-    </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B247" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D247" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E247" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F247" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G247" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H247" s="19"/>
-      <c r="I247" s="19"/>
-      <c r="J247" s="20"/>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B248" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C248" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D248" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E248" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F248" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G248" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
-      <c r="J248" s="20"/>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B249" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C249" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D249" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E249" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F249" s="18">
-        <v>1547</v>
-      </c>
-      <c r="G249" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H249" s="19"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="20"/>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B250" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C250" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D250" s="17" t="s">
+      <c r="B198" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E250" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F250" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G250" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="20"/>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B251" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C251" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D251" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E251" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F251" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G251" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H251" s="19"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="20"/>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B252" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D252" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E252" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F252" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G252" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H252" s="19"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="20"/>
-    </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B253" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C253" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D253" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E253" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F253" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G253" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H253" s="19"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="20"/>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B254" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C254" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D254" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E254" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F254" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G254" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="20"/>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B255" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C255" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D255" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E255" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F255" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G255" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H255" s="19"/>
-      <c r="I255" s="19"/>
-      <c r="J255" s="20"/>
-    </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B256" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C256" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D256" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E256" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F256" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G256" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H256" s="19"/>
-      <c r="I256" s="19"/>
-      <c r="J256" s="20"/>
-    </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B257" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D257" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E257" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F257" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G257" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H257" s="19"/>
-      <c r="I257" s="19"/>
-      <c r="J257" s="20"/>
-    </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B258" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C258" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D258" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E258" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F258" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G258" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
-      <c r="J258" s="20"/>
-    </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B259" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C259" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D259" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E259" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F259" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G259" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H259" s="19"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="20"/>
-    </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B260" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C260" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D260" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E260" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F260" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G260" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H260" s="19"/>
-      <c r="I260" s="19"/>
-      <c r="J260" s="20"/>
-    </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B261" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C261" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D261" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E261" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F261" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G261" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H261" s="19"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="20"/>
-    </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B262" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C262" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D262" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E262" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F262" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G262" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H262" s="19"/>
-      <c r="I262" s="19"/>
-      <c r="J262" s="20"/>
-    </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B263" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D263" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E263" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F263" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G263" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H263" s="19"/>
-      <c r="I263" s="19"/>
-      <c r="J263" s="20"/>
-    </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B264" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C264" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D264" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E264" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F264" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G264" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H264" s="19"/>
-      <c r="I264" s="19"/>
-      <c r="J264" s="20"/>
-    </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B265" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C265" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D265" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E265" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F265" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G265" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H265" s="19"/>
-      <c r="I265" s="19"/>
-      <c r="J265" s="20"/>
-    </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B266" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C266" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D266" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E266" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F266" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G266" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H266" s="19"/>
-      <c r="I266" s="19"/>
-      <c r="J266" s="20"/>
-    </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B267" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C267" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D267" s="17" t="s">
+      <c r="C198" s="32"/>
+      <c r="H198" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E267" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F267" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G267" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H267" s="19"/>
-      <c r="I267" s="19"/>
-      <c r="J267" s="20"/>
-    </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B268" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C268" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D268" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E268" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F268" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G268" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H268" s="19"/>
-      <c r="I268" s="19"/>
-      <c r="J268" s="20"/>
-    </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B269" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C269" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D269" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E269" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F269" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G269" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H269" s="19"/>
-      <c r="I269" s="19"/>
-      <c r="J269" s="20"/>
-    </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B270" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C270" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D270" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E270" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F270" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G270" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H270" s="19"/>
-      <c r="I270" s="19"/>
-      <c r="J270" s="20"/>
-    </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B271" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C271" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D271" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E271" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F271" s="24">
-        <v>20800</v>
-      </c>
-      <c r="G271" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H271" s="25"/>
-      <c r="I271" s="25"/>
-      <c r="J271" s="26"/>
-    </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B276" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C276" s="32"/>
-      <c r="H276" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I276" s="1"/>
-      <c r="J276" s="1"/>
-    </row>
-    <row r="277" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B277" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C277" s="32"/>
-      <c r="H277" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I277" s="1"/>
-      <c r="J277" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="H277:J277"/>
-    <mergeCell ref="H276:J276"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="H198:J198"/>
+    <mergeCell ref="H197:J197"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
